--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>866245.4723939693</v>
+        <v>863516.7291081847</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11627365.79527014</v>
+        <v>11627365.79527013</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>114.0138441087954</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10.85484431418496</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>27.37301815329025</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>234.0528113916476</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.40868448976566</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55.90923991536274</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.92375604299535</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>297.7434504260659</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>102.973797536366</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>65.68091431277792</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>78.92433366407964</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329745</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238013</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114094</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>297.469611669223</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035167</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.1004521009517</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.3853746306127</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034033</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146332</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337184</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352878</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>9.434273714503052</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>7.018581172449863</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.82863813027262</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.9284728855321</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.026286001641</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>109.8058856274575</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>34.21058558914817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>19.91555826189085</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>48.34531439065431</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613147</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>41.02686156550273</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>46.15319674220952</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161912118</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.0270735093611</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833869</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>103.7802572945517</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428161</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2686.184601811975</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2686.184601811975</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2686.184601811975</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2432.422816450066</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2101.359929106496</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2101.359929106496</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1727.894170845416</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1727.894170845416</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,34 +4492,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124031</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>837.1179892781316</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457628</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1073.534970481816</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3069090307624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3069090307624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1710.685703078436</v>
+        <v>1170.868604753196</v>
       </c>
       <c r="C8" t="n">
-        <v>1341.723186138024</v>
+        <v>1170.868604753196</v>
       </c>
       <c r="D8" t="n">
-        <v>983.457487531274</v>
+        <v>812.6029061464453</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4805,22 +4805,22 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>325.1460354086931</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>877.9592936548923</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1509.677104638204</v>
+        <v>1166.769932166871</v>
       </c>
       <c r="N8" t="n">
-        <v>2136.984772698051</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O8" t="n">
-        <v>2307.15379801501</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="W8" t="n">
-        <v>2188.165398244936</v>
+        <v>1934.473694990087</v>
       </c>
       <c r="X8" t="n">
-        <v>1814.699639983856</v>
+        <v>1561.007936729007</v>
       </c>
       <c r="Y8" t="n">
-        <v>1710.685703078436</v>
+        <v>1170.868604753196</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>302.1295994110957</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>439.3591974267897</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.904546893894</v>
+        <v>1279.805585465869</v>
       </c>
       <c r="N9" t="n">
-        <v>1747.448946920904</v>
+        <v>1947.349985492879</v>
       </c>
       <c r="O9" t="n">
-        <v>2296.884955673627</v>
+        <v>2496.785994245602</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2605.4756217729</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>267.1772872099697</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>267.1772872099697</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>267.1772872099697</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>267.1772872099697</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>120.2873397120593</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>715.9594172515172</v>
+        <v>557.2852021097942</v>
       </c>
       <c r="V10" t="n">
-        <v>715.9594172515172</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="W10" t="n">
-        <v>715.9594172515172</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="X10" t="n">
-        <v>487.9698663534998</v>
+        <v>302.6007139039074</v>
       </c>
       <c r="Y10" t="n">
-        <v>267.1772872099697</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1974.152972802154</v>
+        <v>1535.258832689349</v>
       </c>
       <c r="C11" t="n">
-        <v>1605.190455861743</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738907</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035377</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469192</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386831</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856287</v>
+        <v>3535.048359856281</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882245</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234596</v>
+        <v>3925.55331123459</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455665</v>
+        <v>3826.588132455659</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971445</v>
+        <v>3622.786021971439</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604053</v>
+        <v>3369.295305604048</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260483</v>
+        <v>3038.232418260477</v>
       </c>
       <c r="W11" t="n">
-        <v>2737.758063039046</v>
+        <v>2685.463762990363</v>
       </c>
       <c r="X11" t="n">
-        <v>2364.292304777966</v>
+        <v>2311.998004729283</v>
       </c>
       <c r="Y11" t="n">
-        <v>1974.152972802154</v>
+        <v>1921.858672753471</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3935880326288</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469192</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792131</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376508</v>
+        <v>477.1621322376502</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649609</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908851</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1955.072021259916</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145094</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.8650582458568</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="C13" t="n">
-        <v>203.8650582458567</v>
+        <v>203.8650582458552</v>
       </c>
       <c r="D13" t="n">
-        <v>203.8650582458567</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="E13" t="n">
-        <v>203.8650582458567</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="F13" t="n">
-        <v>203.8650582458567</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469192</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600402</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888922</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.96773471585</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370157</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920203</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360492</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154605</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>834.295653117644</v>
+        <v>834.2956531176424</v>
       </c>
       <c r="X13" t="n">
-        <v>606.3061022196266</v>
+        <v>606.306102219625</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5135230760965</v>
+        <v>385.5135230760949</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
         <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>372.2013186925061</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446337</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220735</v>
+        <v>561.9183350635726</v>
       </c>
       <c r="C16" t="n">
-        <v>494.0589900220734</v>
+        <v>561.9183350635726</v>
       </c>
       <c r="D16" t="n">
-        <v>494.0589900220734</v>
+        <v>561.9183350635726</v>
       </c>
       <c r="E16" t="n">
-        <v>484.5294206134844</v>
+        <v>414.0052414811796</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>267.1152939832693</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>99.90109915784802</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>99.90109915784802</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
         <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1192.34892993536</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958433</v>
+        <v>964.3593790373425</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523132</v>
+        <v>743.5667998938123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>913.2907898187001</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876722</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597653</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474297</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474297</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>114.9565346495195</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235168</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258109</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602307</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.74706939642</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359459</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614421</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630042</v>
+        <v>762.547769317912</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,16 +5786,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>513.853600740071</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133953</v>
+        <v>363.7369613277351</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453421</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453422</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,19 +5911,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851667</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572598</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D25" t="n">
-        <v>377.6556127449242</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851784</v>
+        <v>113.9333885650333</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154064</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,16 +6306,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290467</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2331.083728933012</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2111.482263955952</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.407037300151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1567.722549094264</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1278.305379057304</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1050.315828159286</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622262</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343193</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>302.4540366416803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2579373565602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,22 +7014,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1337.934786622704</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1889.844516861991</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622262</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343193</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,19 +7096,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536376</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257307</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133949</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310019</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330918</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230643</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230643</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7342,10 +7342,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7357,25 +7357,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868272</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662385</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727407</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583877</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>315.9123021921482</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921482</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>991.7436897307821</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C43" t="n">
-        <v>822.8075068028752</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,19 +7570,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y43" t="n">
-        <v>1173.392154561022</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.754138832765</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630047</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>196.6584541879434</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>246.7442906384754</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>62.54499603078645</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>8.157046754056925</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803308</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>51.77135704819005</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>24.51502091726067</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>131.41972391761</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729085</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>136.9996889320661</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>74.78599557195912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067367</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187158</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>176.3785887617867</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>112.223377057421</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>132.6809716109903</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>99.26785128072106</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>99.26785128072173</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237433</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.58839950885121</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459255</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>44.8352157236607</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228756</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>907773.2403199042</v>
+        <v>907773.2403199037</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>988162.2719766868</v>
+        <v>988162.271976687</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>993634.1363403565</v>
+        <v>993634.1363403564</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>993634.1363403565</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>993634.1363403564</v>
+        <v>993634.1363403563</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787488</v>
-      </c>
-      <c r="C2" t="n">
-        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787484</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713451</v>
+        <v>386954.4379713449</v>
       </c>
       <c r="F2" t="n">
         <v>421406.8801099662</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.964837253</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372532</v>
@@ -26338,10 +26338,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372532</v>
@@ -26350,10 +26350,10 @@
         <v>423751.964837253</v>
       </c>
       <c r="O2" t="n">
+        <v>423751.9648372533</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>588754.368791968</v>
+        <v>588754.3687919669</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051368</v>
+        <v>166521.3471051383</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557904</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>76530.81132370027</v>
+        <v>76530.81132369991</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848884</v>
+        <v>43782.40655848931</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>3023.297977224738</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5578.415609376701</v>
@@ -26430,34 +26430,34 @@
         <v>5671.003945457393</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682749</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621472</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-451702.4435622385</v>
       </c>
       <c r="C6" t="n">
-        <v>138265.4356523059</v>
+        <v>138265.435652306</v>
       </c>
       <c r="D6" t="n">
-        <v>-17538.37044148945</v>
+        <v>-17538.37044148933</v>
       </c>
       <c r="E6" t="n">
-        <v>-293472.0685921467</v>
+        <v>-293682.0328359906</v>
       </c>
       <c r="F6" t="n">
-        <v>149072.4005455335</v>
+        <v>149026.4955499664</v>
       </c>
       <c r="G6" t="n">
-        <v>305784.6622110841</v>
+        <v>305749.9242856489</v>
       </c>
       <c r="H6" t="n">
-        <v>316951.8984466633</v>
+        <v>316917.1605212276</v>
       </c>
       <c r="I6" t="n">
-        <v>316951.8984466633</v>
+        <v>316917.1605212276</v>
       </c>
       <c r="J6" t="n">
-        <v>140528.6792540704</v>
+        <v>140493.9413286346</v>
       </c>
       <c r="K6" t="n">
-        <v>316951.8984466633</v>
+        <v>316917.1605212277</v>
       </c>
       <c r="L6" t="n">
-        <v>316951.8984466633</v>
+        <v>316917.1605212277</v>
       </c>
       <c r="M6" t="n">
-        <v>240421.0871229631</v>
+        <v>240386.3491975277</v>
       </c>
       <c r="N6" t="n">
-        <v>273169.4918881743</v>
+        <v>273134.7539627381</v>
       </c>
       <c r="O6" t="n">
-        <v>313928.6004694387</v>
+        <v>313893.8625440029</v>
       </c>
       <c r="P6" t="n">
-        <v>316951.898446663</v>
+        <v>316917.1605212276</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086489</v>
+        <v>981.3883278086474</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>618.6941671564917</v>
+        <v>618.6941671564908</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218288</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>307.1010550540933</v>
+        <v>307.1010550540918</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173576</v>
+        <v>178.7569625173595</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540933</v>
+        <v>307.1010550540918</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173576</v>
+        <v>178.7569625173595</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540933</v>
+        <v>307.1010550540918</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173576</v>
+        <v>178.7569625173595</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.2590476622121</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.62355826062674</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>258.9088560886875</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.681030271833</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>28.06971808504603</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>92.70623310284961</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150889</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>84.18691964619586</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>283.2641411196876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>101.2398622417925</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>139.6603196880151</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485652</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508994</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.869763472606</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216977</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857431</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898392</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294413</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615141</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188521</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596483</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783043</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202557</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256419</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845334</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>253.5391629626203</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431813</v>
+        <v>179.5642660017238</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205473</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071848</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691795</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263711</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570616</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929614</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282691</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,7 +32069,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,34 +32078,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>271.6268178754092</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,13 +32789,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33026,19 +33026,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,10 +33509,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,25 +33734,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>531.2627466777524</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33974,7 +33974,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>209.2370040367373</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,10 +34442,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>385.2437196681532</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>358.5971444258759</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>130.8357229634703</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>138.615755571408</v>
@@ -35270,7 +35270,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>31.12365402878115</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276254</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584704</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077545</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062445</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156621</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116376</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458967</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457677</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>122.197450879287</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987369</v>
+        <v>36.96802155727939</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062171</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211632</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670185</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882117</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190458</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998369</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>133.072438095535</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36674,19 +36674,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,10 +37157,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>397.2883392634221</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37622,7 +37622,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>71.39556506237828</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,16 +38102,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
